--- a/net_quiz設計図.xlsx
+++ b/net_quiz設計図.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shigekitakeru/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/laravel/net_quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA995358-F993-254D-B252-7FCE841A3340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7D6E03-290C-0347-866E-B837F8D0B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16300" activeTab="8" xr2:uid="{9692541D-E6CE-B144-B621-50D37C581410}"/>
+    <workbookView xWindow="6960" yWindow="4200" windowWidth="21860" windowHeight="12660" xr2:uid="{9692541D-E6CE-B144-B621-50D37C581410}"/>
   </bookViews>
   <sheets>
-    <sheet name="ログイン画面" sheetId="2" r:id="rId1"/>
-    <sheet name="新規登録" sheetId="8" r:id="rId2"/>
-    <sheet name="登録完了" sheetId="9" r:id="rId3"/>
-    <sheet name="ログイン後" sheetId="5" r:id="rId4"/>
-    <sheet name="お気に入り" sheetId="10" r:id="rId5"/>
-    <sheet name="問題画面" sheetId="1" r:id="rId6"/>
-    <sheet name="解答画面" sheetId="3" r:id="rId7"/>
-    <sheet name="ログインなし" sheetId="7" r:id="rId8"/>
-    <sheet name="DB" sheetId="11" r:id="rId9"/>
+    <sheet name="DB" sheetId="11" r:id="rId1"/>
+    <sheet name="ログイン画面" sheetId="2" r:id="rId2"/>
+    <sheet name="user1" sheetId="8" r:id="rId3"/>
+    <sheet name="user2" sheetId="9" r:id="rId4"/>
+    <sheet name="user3" sheetId="5" r:id="rId5"/>
+    <sheet name="user4" sheetId="10" r:id="rId6"/>
+    <sheet name="user5" sheetId="1" r:id="rId7"/>
+    <sheet name="user6" sheetId="3" r:id="rId8"/>
+    <sheet name="guest1" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -134,6 +134,27 @@
   </si>
   <si>
     <t>seiya0128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>importance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事業者変更</t>
+    <rPh sb="0" eb="3">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2516,6 +2537,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61975909-0468-B729-C8F6-37837B318122}"/>
@@ -3726,6 +3748,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5274A8F7-05C1-6D23-99B5-98C6FEBEAC62}"/>
@@ -3804,6 +3827,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E1201D-110E-DBE1-1674-BAAB95A97898}"/>
@@ -4295,6 +4319,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="山形 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EA754E-FA8F-0840-BFD8-0364196B0B5E}"/>
@@ -4431,7 +4456,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097B518C-6A14-2D9F-70E6-2395F79059D7}"/>
@@ -5171,133 +5196,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA636253-1226-1148-A15E-C3591F15007A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F126B8-3D84-A445-85FA-9493A23BC2DC}">
-  <dimension ref="E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="8" spans="5:5" ht="38">
-      <c r="E8" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB6DD78-112E-B247-B75D-1B742443683D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBF3E0C-74AF-AE4A-9A32-5B2EDBE5002E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B130309C-D8EE-F64B-ABFE-1D97E882C749}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D21A0B-CDE3-9A48-A90B-5EB5D495B85C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA51FF-1978-8547-9418-BBAE1E72BF83}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F11A69D-4B60-684F-B6CF-B3023F2754E6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FFF703-77D3-6C4E-AD69-49620344C77E}">
-  <dimension ref="C4:P13"/>
+  <dimension ref="C4:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5305,27 +5208,27 @@
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16">
+    <row r="4" spans="3:17">
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:16">
+    <row r="5" spans="3:17">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -5350,20 +5253,23 @@
       <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="2">
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="3:16">
+    <row r="6" spans="3:17">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -5384,20 +5290,23 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="3:16">
+    <row r="7" spans="3:17">
       <c r="H7" s="2">
         <v>2</v>
       </c>
@@ -5410,13 +5319,16 @@
       <c r="K7" s="2">
         <v>1</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="3:16">
+    <row r="10" spans="3:17">
       <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="3:16">
+    <row r="11" spans="3:17">
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
@@ -5433,7 +5345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:16">
+    <row r="12" spans="3:17">
       <c r="C12" s="2">
         <v>1</v>
       </c>
@@ -5446,7 +5358,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="3:16">
+    <row r="13" spans="3:17">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -5456,9 +5368,130 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="O5" r:id="rId1" xr:uid="{F18D9A68-BA6A-7A4B-86E6-8297A1BD78E3}"/>
-    <hyperlink ref="O6" r:id="rId2" xr:uid="{0AB3FFB3-65D5-554A-A4F3-8F28486A8D57}"/>
+    <hyperlink ref="P5" r:id="rId1" xr:uid="{F18D9A68-BA6A-7A4B-86E6-8297A1BD78E3}"/>
+    <hyperlink ref="P6" r:id="rId2" xr:uid="{0AB3FFB3-65D5-554A-A4F3-8F28486A8D57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA636253-1226-1148-A15E-C3591F15007A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F126B8-3D84-A445-85FA-9493A23BC2DC}">
+  <dimension ref="E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="8" spans="5:5" ht="38">
+      <c r="E8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB6DD78-112E-B247-B75D-1B742443683D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBF3E0C-74AF-AE4A-9A32-5B2EDBE5002E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B130309C-D8EE-F64B-ABFE-1D97E882C749}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D21A0B-CDE3-9A48-A90B-5EB5D495B85C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA51FF-1978-8547-9418-BBAE1E72BF83}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F11A69D-4B60-684F-B6CF-B3023F2754E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>